--- a/FR_RPA_Reporting_V2.5.5/Config.xlsx
+++ b/FR_RPA_Reporting_V2.5.5/Config.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{E3FF5454-230D-499A-9940-05D637606150}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{53DDF608-18F0-4F41-8E8B-C3678B243D36}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18756" windowHeight="5880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18750" windowHeight="5880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Setting" sheetId="3" r:id="rId1"/>
@@ -453,19 +453,19 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>ProcessManagementSheet</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DataRange</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>A6:FA1000</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>09012735_kibana_prd</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ProcessManagementSheet</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>DataRange</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>A6:FA1000</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -975,14 +975,14 @@
   <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="1" width="27.3984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="123.69921875" customWidth="1"/>
-    <col min="3" max="3" width="102.59765625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="123.75" customWidth="1"/>
+    <col min="3" max="3" width="102.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" s="6" customFormat="1">
@@ -1052,7 +1052,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="36">
+    <row r="8" spans="1:3" ht="37.5">
       <c r="A8" s="14" t="s">
         <v>23</v>
       </c>
@@ -1125,7 +1125,7 @@
         <v>101</v>
       </c>
       <c r="B15" s="40" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="C15" t="s">
         <v>102</v>
@@ -1133,7 +1133,7 @@
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B16" t="s">
         <v>14</v>
@@ -1141,10 +1141,10 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
+        <v>104</v>
+      </c>
+      <c r="B17" t="s">
         <v>105</v>
-      </c>
-      <c r="B17" t="s">
-        <v>106</v>
       </c>
     </row>
   </sheetData>
@@ -1173,13 +1173,13 @@
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
-    <col min="2" max="2" width="42.3984375" customWidth="1"/>
-    <col min="3" max="3" width="46.69921875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.8984375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.3984375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.3984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="42.375" customWidth="1"/>
+    <col min="3" max="3" width="46.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="6" customFormat="1">
@@ -1412,25 +1412,25 @@
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75"/>
   <cols>
     <col min="1" max="1" width="9" style="26"/>
-    <col min="2" max="2" width="14.69921875" style="26" customWidth="1"/>
-    <col min="3" max="3" width="16.19921875" style="26" customWidth="1"/>
-    <col min="4" max="4" width="14.59765625" style="26" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.75" style="26" customWidth="1"/>
+    <col min="3" max="3" width="16.25" style="26" customWidth="1"/>
+    <col min="4" max="4" width="14.625" style="26" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="22" style="26" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.69921875" customWidth="1"/>
-    <col min="7" max="7" width="22.3984375" style="26" customWidth="1"/>
+    <col min="6" max="6" width="11.75" customWidth="1"/>
+    <col min="7" max="7" width="22.375" style="26" customWidth="1"/>
     <col min="8" max="8" width="34" style="26" customWidth="1"/>
-    <col min="9" max="9" width="5.8984375" style="26" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="18.3984375" style="26" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="19.59765625" style="26" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="17.69921875" style="26" customWidth="1"/>
-    <col min="13" max="13" width="111.3984375" style="26" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.875" style="26" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="18.375" style="26" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="19.625" style="26" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="17.75" style="26" customWidth="1"/>
+    <col min="13" max="13" width="111.375" style="26" bestFit="1" customWidth="1"/>
     <col min="14" max="16384" width="9" style="26"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="17" customFormat="1">
+    <row r="1" spans="1:13" s="17" customFormat="1" ht="18">
       <c r="A1" s="17" t="s">
         <v>12</v>
       </c>
@@ -1521,15 +1521,15 @@
       </c>
       <c r="C3" s="30">
         <f ca="1">D3-7</f>
-        <v>44095</v>
+        <v>44115</v>
       </c>
       <c r="D3" s="30">
         <f t="shared" ref="D3:E5" ca="1" si="0">TODAY()-1</f>
-        <v>44102</v>
+        <v>44122</v>
       </c>
       <c r="E3" s="30">
         <f t="shared" ca="1" si="0"/>
-        <v>44102</v>
+        <v>44122</v>
       </c>
       <c r="F3">
         <v>-7</v>
@@ -1562,15 +1562,15 @@
       </c>
       <c r="C4" s="30">
         <f ca="1">D4-30</f>
-        <v>44072</v>
+        <v>44092</v>
       </c>
       <c r="D4" s="30">
         <f t="shared" ca="1" si="0"/>
-        <v>44102</v>
+        <v>44122</v>
       </c>
       <c r="E4" s="30">
         <f t="shared" ca="1" si="0"/>
-        <v>44102</v>
+        <v>44122</v>
       </c>
       <c r="F4">
         <v>-30</v>
@@ -1603,15 +1603,15 @@
       </c>
       <c r="C5" s="30">
         <f ca="1">D5-90</f>
-        <v>44012</v>
+        <v>44032</v>
       </c>
       <c r="D5" s="39">
         <f t="shared" ca="1" si="0"/>
-        <v>44102</v>
+        <v>44122</v>
       </c>
       <c r="E5" s="39">
         <f ca="1">TODAY()-1</f>
-        <v>44102</v>
+        <v>44122</v>
       </c>
       <c r="F5" s="2">
         <v>-90</v>
